--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ufo12\FAV\Bachelor\Bachelor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3490B96-AA39-49E9-B748-152091C99897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E70719-456F-4B75-B219-89476BAC118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -416,6 +416,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -458,10 +495,10 @@
     <xf numFmtId="21" fontId="1" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="6" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
-    <xf numFmtId="21" fontId="1" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="1" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="1" fillId="5" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="5" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="5" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % – Zvýraznění 1" xfId="3" builtinId="30"/>
@@ -749,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +821,7 @@
         <f t="shared" ref="D3:E3" si="0">D9-D8</f>
         <v>1.5810185185185177E-2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <f t="shared" si="0"/>
         <v>4.4664351851851913E-2</v>
       </c>
@@ -801,7 +838,7 @@
         <f t="shared" ref="D4:E4" si="1">D11-D10</f>
         <v>1.5578703703703622E-2</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="30">
         <f t="shared" si="1"/>
         <v>4.5486111111111116E-2</v>
       </c>
@@ -818,7 +855,7 @@
         <f t="shared" ref="D5:E5" si="2">D13-D12</f>
         <v>1.4884259259259291E-2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="30">
         <f t="shared" si="2"/>
         <v>4.5104166666666723E-2</v>
       </c>
@@ -835,8 +872,8 @@
         <f t="shared" ref="D6:E6" si="3">AVERAGE(D3:D5)</f>
         <v>1.5424382716049364E-2</v>
       </c>
-      <c r="E6" s="30">
-        <f t="shared" si="3"/>
+      <c r="E6" s="31">
+        <f>AVERAGE(E3:E5)</f>
         <v>4.5084876543209917E-2</v>
       </c>
     </row>
@@ -921,7 +958,7 @@
       <c r="D13" s="14">
         <v>0.77577546296296296</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <v>0.96549768518518519</v>
       </c>
     </row>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ufo12\FAV\Bachelor\Bachelor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E70719-456F-4B75-B219-89476BAC118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340B7573-8FA2-486B-B6E0-A6CFE920FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>PostgreSQL</t>
   </si>
@@ -75,12 +77,45 @@
   </si>
   <si>
     <t>čas 3</t>
+  </si>
+  <si>
+    <t>File 1</t>
+  </si>
+  <si>
+    <t>File 2</t>
+  </si>
+  <si>
+    <t>File 3</t>
+  </si>
+  <si>
+    <t>File 4</t>
+  </si>
+  <si>
+    <t>File 5</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Time to End</t>
+  </si>
+  <si>
+    <t>Průměr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,7 +501,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -499,6 +534,8 @@
     <xf numFmtId="21" fontId="1" fillId="5" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="5" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % – Zvýraznění 1" xfId="3" builtinId="30"/>
@@ -786,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="B2:E6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +906,7 @@
         <v>2.5212191358024699E-2</v>
       </c>
       <c r="D6" s="26">
-        <f t="shared" ref="D6:E6" si="3">AVERAGE(D3:D5)</f>
+        <f t="shared" ref="D6" si="3">AVERAGE(D3:D5)</f>
         <v>1.5424382716049364E-2</v>
       </c>
       <c r="E6" s="31">
@@ -966,4 +1003,323 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496FD610-A32C-4367-966A-DC4703B7889E}">
+  <dimension ref="B3:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="32">
+        <f>C10-C9</f>
+        <v>5.2083333333341475E-4</v>
+      </c>
+      <c r="D4" s="32">
+        <f>D10-D9</f>
+        <v>3.4722222222216548E-4</v>
+      </c>
+      <c r="E4" s="32">
+        <f>E10-E9</f>
+        <v>2.1990740740740478E-4</v>
+      </c>
+      <c r="F4" s="32">
+        <f>F10-F9</f>
+        <v>1.9675925925932702E-4</v>
+      </c>
+      <c r="G4" s="32">
+        <f>G10-G9</f>
+        <v>1.6203703703698835E-4</v>
+      </c>
+      <c r="H4" s="32">
+        <f>SUM(C4:G4)</f>
+        <v>1.4467592592593004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="32">
+        <f>C12-C11</f>
+        <v>5.3240740740745363E-4</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" ref="D5:H5" si="0">D12-D11</f>
+        <v>3.356481481481266E-4</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="0"/>
+        <v>2.083333333333659E-4</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.96759259259216E-4</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.388888888889106E-4</v>
+      </c>
+      <c r="H5" s="32">
+        <f>SUM(C5:G5)</f>
+        <v>1.4120370370370727E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32">
+        <f>C14-C13</f>
+        <v>5.0925925925926485E-4</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" ref="D6:G6" si="1">D14-D13</f>
+        <v>3.472222222222765E-4</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" si="1"/>
+        <v>2.083333333333659E-4</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="1"/>
+        <v>2.0833333333325488E-4</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="1"/>
+        <v>1.5046296296294948E-4</v>
+      </c>
+      <c r="H6" s="32">
+        <f>SUM(C6:G6)</f>
+        <v>1.4236111111111116E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.61311342592592588</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.6136342592592593</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.61398148148148146</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.61420138888888887</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.61439814814814819</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.6136342592592593</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.61398148148148146</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.61420138888888887</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.61439814814814819</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.61456018518518518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.61982638888888886</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.62035879629629631</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.62069444444444444</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0.6209027777777778</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.62109953703703702</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.62035879629629631</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.62069444444444444</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.6209027777777778</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.62109953703703702</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.62123842592592593</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.62428240740740737</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.62479166666666663</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.62513888888888891</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0.62555555555555553</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.62479166666666663</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.62513888888888891</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.62555555555555553</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.62570601851851848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C35DCAF-F138-49D3-87AE-BED477BB4A1D}">
+  <dimension ref="C3:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="32">
+        <f>C9-C8</f>
+        <v>1.1458333333334014E-3</v>
+      </c>
+      <c r="D4" s="32">
+        <f>D9-D8</f>
+        <v>1.0763888888888351E-3</v>
+      </c>
+      <c r="E4" s="32">
+        <f>E9-E8</f>
+        <v>1.0648148148147962E-3</v>
+      </c>
+      <c r="F4" s="32">
+        <f>AVERAGE(C4:E4)</f>
+        <v>1.0956790123456777E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="32">
+        <v>0.65541666666666665</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.6594444444444445</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.66129629629629627</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="32">
+        <v>0.65656250000000005</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.66052083333333333</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.66236111111111107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>